--- a/test-stari-sistem.xlsx
+++ b/test-stari-sistem.xlsx
@@ -397,14 +397,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Klijent</v>
+        <v>Ime i prezime klijenta</v>
       </c>
       <c r="B1" t="str">
         <v>Telefon</v>
@@ -413,7 +413,7 @@
         <v>Grad</v>
       </c>
       <c r="D1" t="str">
-        <v>Uređaj</v>
+        <v>Tip aparata</v>
       </c>
       <c r="E1" t="str">
         <v>Proizvođač</v>
@@ -425,7 +425,7 @@
         <v>Serijski broj</v>
       </c>
       <c r="H1" t="str">
-        <v>Napomena</v>
+        <v>Opis kvara</v>
       </c>
     </row>
     <row r="2">
@@ -439,19 +439,19 @@
         <v>TV</v>
       </c>
       <c r="D2" t="str">
-        <v>frižider</v>
+        <v>SM</v>
       </c>
       <c r="E2" t="str">
         <v>Samsung</v>
       </c>
       <c r="F2" t="str">
-        <v>RF50K</v>
+        <v>DW50K</v>
       </c>
       <c r="G2" t="str">
         <v>12345</v>
       </c>
       <c r="H2" t="str">
-        <v>redovan pregled</v>
+        <v>ne pere kako treba</v>
       </c>
     </row>
     <row r="3">
@@ -465,19 +465,19 @@
         <v>TV</v>
       </c>
       <c r="D3" t="str">
-        <v>frižider</v>
+        <v>VM</v>
       </c>
       <c r="E3" t="str">
         <v>LG</v>
       </c>
       <c r="F3" t="str">
-        <v>GR-B459</v>
+        <v>WM-5000</v>
       </c>
       <c r="G3" t="str">
         <v>67890</v>
       </c>
       <c r="H3" t="str">
-        <v>potrebna servis</v>
+        <v>ne centrifugira</v>
       </c>
     </row>
     <row r="4">
@@ -491,19 +491,19 @@
         <v>KO</v>
       </c>
       <c r="D4" t="str">
-        <v>frižider</v>
+        <v>VM KOMB</v>
       </c>
       <c r="E4" t="str">
         <v>Bosch</v>
       </c>
       <c r="F4" t="str">
-        <v>KGV</v>
+        <v>WKD-300</v>
       </c>
       <c r="G4" t="str">
         <v>54321</v>
       </c>
       <c r="H4" t="str">
-        <v>kvar kompresora</v>
+        <v>ne suši</v>
       </c>
     </row>
     <row r="5">
@@ -517,19 +517,19 @@
         <v>BD</v>
       </c>
       <c r="D5" t="str">
-        <v>frižider</v>
+        <v>SM UG</v>
       </c>
       <c r="E5" t="str">
         <v>Whirlpool</v>
       </c>
       <c r="F5" t="str">
-        <v>WBA</v>
+        <v>WDI-60</v>
       </c>
       <c r="G5" t="str">
         <v>98765</v>
       </c>
       <c r="H5" t="str">
-        <v>ne hladi</v>
+        <v>ne radi</v>
       </c>
     </row>
     <row r="6">
@@ -555,12 +555,38 @@
         <v>13579</v>
       </c>
       <c r="H6" t="str">
-        <v>promena filtera</v>
+        <v>ne hladi</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Marko Petrović</v>
+      </c>
+      <c r="B7" t="str">
+        <v>069/987-654</v>
+      </c>
+      <c r="C7" t="str">
+        <v>KO</v>
+      </c>
+      <c r="D7" t="str">
+        <v>šporet</v>
+      </c>
+      <c r="E7" t="str">
+        <v>Gorenje</v>
+      </c>
+      <c r="F7" t="str">
+        <v>G-500</v>
+      </c>
+      <c r="G7" t="str">
+        <v>11111</v>
+      </c>
+      <c r="H7" t="str">
+        <v>ne radi ploca</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H7"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/test-stari-sistem.xlsx
+++ b/test-stari-sistem.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -584,9 +584,35 @@
         <v>ne radi ploca</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Ana Milic</v>
+      </c>
+      <c r="B8" t="str">
+        <v>067/777-888</v>
+      </c>
+      <c r="C8" t="str">
+        <v>TV</v>
+      </c>
+      <c r="D8" t="str">
+        <v>frižider komb</v>
+      </c>
+      <c r="E8" t="str">
+        <v>Samsung</v>
+      </c>
+      <c r="F8" t="str">
+        <v>RF-850</v>
+      </c>
+      <c r="G8" t="str">
+        <v>22222</v>
+      </c>
+      <c r="H8" t="str">
+        <v>ne hladi zamrzivač</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H8"/>
   </ignoredErrors>
 </worksheet>
 </file>